--- a/p0-userstories.xlsx
+++ b/p0-userstories.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SwordThousandYear\Desktop\Project Folders\Week 2\P0 Project March 9th\p0-NicoWi-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pccirc19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CE4D55D-918A-46ED-B08B-6D3C99E2CA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10590" yWindow="1560" windowWidth="9615" windowHeight="7875" xr2:uid="{D9FC7C91-055A-468F-8446-CA8DFB36EE94}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>User Stories</t>
   </si>
@@ -43,12 +42,78 @@
   </si>
   <si>
     <t>As a user, I can register with a username and password</t>
+  </si>
+  <si>
+    <t>As the system, I reject registration attempts for usernames that already exist</t>
+  </si>
+  <si>
+    <t>1 point</t>
+  </si>
+  <si>
+    <t>As a user, I can login with a username and password</t>
+  </si>
+  <si>
+    <t>2 points</t>
+  </si>
+  <si>
+    <t>As the system, I reject login attempts with invalid credentials</t>
+  </si>
+  <si>
+    <t>As a customer, I can apply for a new bank account with a starting balance.</t>
+  </si>
+  <si>
+    <t>3 points</t>
+  </si>
+  <si>
+    <t>As a customer, I can view the balance of a specific account</t>
+  </si>
+  <si>
+    <t>As a customer, I can make a deposit to a specific account</t>
+  </si>
+  <si>
+    <t>As a customer, I can make a withdrawal from a specific account</t>
+  </si>
+  <si>
+    <t>As the system, I reject and prevent overdrafts</t>
+  </si>
+  <si>
+    <t>1 points</t>
+  </si>
+  <si>
+    <t>As the system, I reject deposits or withdrawals of negative money</t>
+  </si>
+  <si>
+    <t>As the system, I reject any transactions of unapproved accounts</t>
+  </si>
+  <si>
+    <t>As an employee, I can approve or reject an account.</t>
+  </si>
+  <si>
+    <t>As a customer, I can post a money transfer to another account.</t>
+  </si>
+  <si>
+    <t>As the system, I reject invalid transfers (negative amounts or overdrafts)</t>
+  </si>
+  <si>
+    <t>As an employee, I can view a log of all transactions.</t>
+  </si>
+  <si>
+    <t>File I/O integration tests</t>
+  </si>
+  <si>
+    <t>10 points</t>
+  </si>
+  <si>
+    <t>Database integration tests</t>
+  </si>
+  <si>
+    <t>NOTE: database tests are ignored for scoring purposes, but you should still run the tests locally to help you validate your JDBC code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -393,16 +458,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BF7AE0-012C-457C-9A0B-868CC0CE2E42}">
-  <dimension ref="B1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
@@ -421,7 +486,213 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/p0-userstories.xlsx
+++ b/p0-userstories.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pccirc19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Revature\Batch3\p0-SivaOS-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8231D2-9773-4AA3-9950-5092C5E10818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
-  <si>
-    <t>User Stories</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+  <si>
+    <t>UserStory</t>
   </si>
   <si>
     <t>Points</t>
@@ -47,24 +41,45 @@
     <t>As the system, I reject registration attempts for usernames that already exist</t>
   </si>
   <si>
-    <t>1 point</t>
+    <t>Req_ID</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>InProgress/Completed/Bug</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>Compulsory</t>
+  </si>
+  <si>
+    <t>Should Have</t>
+  </si>
+  <si>
+    <t>Good To Have / Nice to Have</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>Total Points: 35 points</t>
   </si>
   <si>
     <t>As a user, I can login with a username and password</t>
   </si>
   <si>
-    <t>2 points</t>
-  </si>
-  <si>
     <t>As the system, I reject login attempts with invalid credentials</t>
   </si>
   <si>
     <t>As a customer, I can apply for a new bank account with a starting balance.</t>
   </si>
   <si>
-    <t>3 points</t>
-  </si>
-  <si>
     <t>As a customer, I can view the balance of a specific account</t>
   </si>
   <si>
@@ -77,9 +92,6 @@
     <t>As the system, I reject and prevent overdrafts</t>
   </si>
   <si>
-    <t>1 points</t>
-  </si>
-  <si>
     <t>As the system, I reject deposits or withdrawals of negative money</t>
   </si>
   <si>
@@ -101,21 +113,38 @@
     <t>File I/O integration tests</t>
   </si>
   <si>
-    <t>10 points</t>
-  </si>
-  <si>
     <t>Database integration tests</t>
   </si>
   <si>
     <t>NOTE: database tests are ignored for scoring purposes, but you should still run the tests locally to help you validate your JDBC code</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -131,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,12 +168,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,7 +237,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -191,7 +249,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -238,23 +296,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -290,23 +331,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,241 +482,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="75.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="1" spans="2:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>24</v>
+    <row r="22" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L22" s="4"/>
+    </row>
+    <row r="24" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L24" s="4"/>
+    </row>
+    <row r="26" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L26" s="4"/>
+    </row>
+    <row r="28" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L28" s="4"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L30" s="4"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L32" s="4"/>
+    </row>
+    <row r="34" spans="12:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L34" s="4"/>
+    </row>
+    <row r="36" spans="12:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="12:12" ht="15" x14ac:dyDescent="0.3">
+      <c r="L37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" ht="45" x14ac:dyDescent="0.3">
+      <c r="L38" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB3E36-8D93-4ED2-AF7D-5ED583E6331F}">
+  <dimension ref="A2:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="66.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86BDEFD-681B-4230-B54C-54FEE69457EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>